--- a/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,18</t>
+          <t>-2,21; 2,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,01</t>
+          <t>-0,51; 3,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,99</t>
+          <t>1,11; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,98</t>
+          <t>-1,85; 3,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 129,26</t>
+          <t>-59,14; 123,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 407,88</t>
+          <t>-26,76; 315,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1818,88</t>
+          <t>13,5; 1857,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,11</t>
+          <t>0,56; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,98</t>
+          <t>-1,63; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,08</t>
+          <t>-0,43; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,22</t>
+          <t>-4,7; 0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 232,35</t>
+          <t>9,86; 224,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 110,05</t>
+          <t>-35,18; 105,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 240,66</t>
+          <t>-14,01; 232,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 27,61</t>
+          <t>-87,92; 15,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,75</t>
+          <t>-0,28; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,86</t>
+          <t>1,88; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,54</t>
+          <t>-1,24; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,05</t>
+          <t>-1,41; 4,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 124,24</t>
+          <t>-5,43; 137,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,43; 175,4</t>
+          <t>27,61; 179,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 107,99</t>
+          <t>-19,34; 111,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 97,3</t>
+          <t>-19,66; 120,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,43</t>
+          <t>2,31; 10,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,01</t>
+          <t>1,79; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,19</t>
+          <t>-1,37; 6,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 2,97</t>
+          <t>-21,88; 2,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 131,14</t>
+          <t>17,92; 127,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 113,23</t>
+          <t>12,31; 115,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 64,18</t>
+          <t>-9,69; 63,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 27,67</t>
+          <t>-66,26; 27,19</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 12,12</t>
+          <t>-0,02; 12,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 22,25</t>
+          <t>9,69; 22,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,25</t>
+          <t>5,71; 17,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,39</t>
+          <t>-0,12; 8,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 56,54</t>
+          <t>-0,4; 58,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 127,43</t>
+          <t>41,48; 129,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,81; 99,49</t>
+          <t>23,66; 102,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 45,37</t>
+          <t>-1,16; 46,03</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,52</t>
+          <t>17,29; 27,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 23,19</t>
+          <t>11,37; 22,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 21,04</t>
+          <t>10,25; 20,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 23,68</t>
+          <t>-0,7; 23,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,11; 60,62</t>
+          <t>33,0; 61,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 45,24</t>
+          <t>19,8; 44,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,84; 49,94</t>
+          <t>21,51; 50,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 64,21</t>
+          <t>-1,5; 62,29</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,43; 11,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,06; 12,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,34; 10,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,84</t>
+          <t>1,24; 7,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,66; 86,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>48,48; 83,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>40,93; 73,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 51,06</t>
+          <t>2,01; 50,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,0</t>
+          <t>-1,99; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,96</t>
+          <t>-0,43; 3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,21</t>
+          <t>0,9; 4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 123,61</t>
+          <t>-55,91; 148,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 315,6</t>
+          <t>-23,4; 353,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,5; 1857,32</t>
+          <t>14,78; 1964,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,17</t>
+          <t>0,35; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,06</t>
+          <t>-1,71; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,87</t>
+          <t>-0,56; 3,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 224,03</t>
+          <t>4,34; 258,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 105,8</t>
+          <t>-35,57; 118,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 232,51</t>
+          <t>-19,04; 216,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,24</t>
+          <t>-0,25; 4,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,63</t>
+          <t>1,63; 7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,57</t>
+          <t>-0,54; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 137,12</t>
+          <t>-6,05; 131,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,61; 179,12</t>
+          <t>18,66; 170,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 111,25</t>
+          <t>-10,66; 123,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,35</t>
+          <t>2,43; 10,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,24</t>
+          <t>1,91; 9,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,6</t>
+          <t>-1,33; 6,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 127,79</t>
+          <t>20,14; 138,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 115,44</t>
+          <t>14,05; 108,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 63,52</t>
+          <t>-9,26; 63,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 12,6</t>
+          <t>0,03; 12,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 22,54</t>
+          <t>10,03; 22,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 17,92</t>
+          <t>5,86; 17,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 58,19</t>
+          <t>0,16; 59,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,48; 129,8</t>
+          <t>40,23; 127,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,66; 102,59</t>
+          <t>26,39; 98,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,29; 27,62</t>
+          <t>16,82; 27,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 22,74</t>
+          <t>11,44; 23,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 20,95</t>
+          <t>10,43; 21,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,0; 61,5</t>
+          <t>32,4; 63,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,8; 44,3</t>
+          <t>19,31; 45,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,51; 50,17</t>
+          <t>22,07; 51,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,11</t>
+          <t>7,29; 10,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,1</t>
+          <t>8,33; 12,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,12</t>
+          <t>6,46; 10,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,66; 86,13</t>
+          <t>48,76; 83,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,48; 83,32</t>
+          <t>50,52; 82,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,93; 73,56</t>
+          <t>41,66; 75,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,13</t>
+          <t>-1,87; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,86</t>
+          <t>-0,4; 4,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,82</t>
+          <t>0,9; 4,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,8</t>
+          <t>-1,88; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 148,98</t>
+          <t>-57,91; 129,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 353,65</t>
+          <t>-22,72; 407,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 1964,76</t>
+          <t>-0,46; 1818,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,54</t>
+          <t>0,18; 5,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,24</t>
+          <t>-1,57; 2,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,84</t>
+          <t>-0,42; 4,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,11</t>
+          <t>-4,78; 0,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 258,56</t>
+          <t>-1,86; 232,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 118,29</t>
+          <t>-34,13; 110,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 216,31</t>
+          <t>-14,17; 240,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,92; 15,95</t>
+          <t>-86,9; 27,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,96</t>
+          <t>-0,43; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,69</t>
+          <t>1,74; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,04</t>
+          <t>-0,63; 4,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,41</t>
+          <t>-1,3; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 131,6</t>
+          <t>-7,86; 124,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 170,03</t>
+          <t>22,43; 175,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 123,37</t>
+          <t>-10,41; 107,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 120,33</t>
+          <t>-18,87; 97,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,96</t>
+          <t>2,25; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,84</t>
+          <t>1,91; 10,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 6,52</t>
+          <t>-1,25; 6,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 2,9</t>
+          <t>-24,23; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 138,63</t>
+          <t>17,31; 131,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 108,89</t>
+          <t>16,33; 113,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 63,14</t>
+          <t>-8,84; 64,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 27,19</t>
+          <t>-67,8; 27,67</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 12,78</t>
+          <t>-0,33; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 22,35</t>
+          <t>9,72; 22,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 17,28</t>
+          <t>5,88; 17,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 8,77</t>
+          <t>0,05; 8,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 59,65</t>
+          <t>-1,42; 56,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,23; 127,15</t>
+          <t>41,08; 127,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,39; 98,38</t>
+          <t>23,81; 99,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 46,03</t>
+          <t>0,32; 45,37</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 27,67</t>
+          <t>16,65; 27,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 23,16</t>
+          <t>12,27; 23,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 21,49</t>
+          <t>10,55; 21,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 23,23</t>
+          <t>0,5; 23,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,4; 63,13</t>
+          <t>31,11; 60,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 45,38</t>
+          <t>20,88; 45,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,07; 51,43</t>
+          <t>21,84; 49,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 62,29</t>
+          <t>1,42; 64,21</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,9</t>
+          <t>7,68; 11,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,05</t>
+          <t>8,29; 12,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,27</t>
+          <t>6,29; 10,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,84</t>
+          <t>0,5; 7,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,76; 83,12</t>
+          <t>52,21; 86,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,52; 82,76</t>
+          <t>49,41; 82,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,66; 75,91</t>
+          <t>41,6; 74,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 50,76</t>
+          <t>-0,37; 51,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>56,33%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,98</t>
+          <t>-2,12; 3,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>-62,91%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,22</t>
+          <t>-5,11; -0,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 27,61</t>
+          <t>-89,44; 11,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,05</t>
+          <t>-1,8; 3,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 97,3</t>
+          <t>-26,85; 83,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-23,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-65,39%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 2,97</t>
+          <t>-58,06; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 27,67</t>
+          <t>-84,25; 23,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,39</t>
+          <t>-0,12; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 45,37</t>
+          <t>-0,53; 44,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,43</t>
+          <t>26,88</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,93</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,62</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,52</t>
+          <t>18,69; 33,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 23,19</t>
+          <t>9,11; 25,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 21,04</t>
+          <t>6,56; 20,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 23,68</t>
+          <t>-14,66; 16,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,11; 60,62</t>
+          <t>47,51; 110,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 45,24</t>
+          <t>19,37; 68,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,84; 49,94</t>
+          <t>17,69; 68,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 64,21</t>
+          <t>-60,39; 66,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>23,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>43,26%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,68; 20,09</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 19,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 21,88</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 28,81</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 32,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 30,69</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 41,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30,89; 58,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,32</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>66,93%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,68; 11,41</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,29; 12,15</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,29; 10,18</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 7,84</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-20,52; 6,7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>52,21; 86,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>49,41; 82,62</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>41,6; 74,22</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 51,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-52,18; 43,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,18</t>
+          <t>-1,75; 2,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,01</t>
+          <t>-0,42; 4,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,99</t>
+          <t>0,85; 4,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,54</t>
+          <t>-2,22; 3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 129,26</t>
+          <t>-53,67; 166,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 407,88</t>
+          <t>-21,85; 373,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1818,88</t>
+          <t>9,98; 2032,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,11</t>
+          <t>0,36; 5,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,98</t>
+          <t>-1,77; 2,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,08</t>
+          <t>-0,53; 3,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,08</t>
+          <t>-5,29; -0,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 232,35</t>
+          <t>3,5; 245,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 110,05</t>
+          <t>-38,16; 95,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 240,66</t>
+          <t>-16,66; 223,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 11,58</t>
+          <t>-88,21; -0,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,75</t>
+          <t>-0,4; 4,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,86</t>
+          <t>2,12; 7,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,54</t>
+          <t>-0,77; 4,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,67</t>
+          <t>-2,06; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 124,24</t>
+          <t>-7,69; 121,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,43; 175,4</t>
+          <t>26,77; 172,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 107,99</t>
+          <t>-12,23; 107,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 83,39</t>
+          <t>-28,48; 86,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,43</t>
+          <t>2,39; 10,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,01</t>
+          <t>1,69; 9,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,19</t>
+          <t>-1,07; 6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 2,3</t>
+          <t>-63,5; 2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 131,14</t>
+          <t>19,16; 131,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 113,23</t>
+          <t>12,9; 111,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 64,18</t>
+          <t>-7,74; 65,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,25; 23,19</t>
+          <t>-85,53; 19,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 12,12</t>
+          <t>0,22; 13,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 22,25</t>
+          <t>9,34; 22,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,25</t>
+          <t>5,78; 17,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 8,54</t>
+          <t>-0,61; 8,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 56,54</t>
+          <t>0,37; 60,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 127,43</t>
+          <t>39,61; 128,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,81; 99,49</t>
+          <t>24,03; 102,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 44,16</t>
+          <t>-2,45; 43,32</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,69; 33,25</t>
+          <t>18,93; 34,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 25,55</t>
+          <t>9,73; 25,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 20,57</t>
+          <t>6,11; 20,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 16,62</t>
+          <t>-14,54; 16,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,51; 110,35</t>
+          <t>48,42; 113,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 68,68</t>
+          <t>21,03; 68,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 68,57</t>
+          <t>15,59; 68,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 66,18</t>
+          <t>-53,82; 68,39</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 20,09</t>
+          <t>4,69; 20,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 19,74</t>
+          <t>3,95; 19,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 21,88</t>
+          <t>7,38; 21,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 28,81</t>
+          <t>18,09; 28,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 32,12</t>
+          <t>6,45; 33,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 30,69</t>
+          <t>5,28; 29,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,24; 41,23</t>
+          <t>12,1; 41,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,89; 58,02</t>
+          <t>31,17; 57,72</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,52; 11,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,1; 12,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,43; 10,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,7</t>
+          <t>-20,54; 6,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,68; 84,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>47,81; 82,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>42,05; 73,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 43,71</t>
+          <t>-51,74; 42,99</t>
         </is>
       </c>
     </row>
